--- a/Rapport resourcer/Tidsplan - Realiseret.xlsx
+++ b/Rapport resourcer/Tidsplan - Realiseret.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\Rapport resourcer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C6CD0-80DA-4D79-AE09-85C9913A09A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA32163B-7E47-463E-BFD8-1C3A11D0C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11745" yWindow="4800" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1442,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1613,7 @@
       <c r="W4" s="72"/>
       <c r="X4" s="86"/>
       <c r="Y4" s="79"/>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="79"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="69"/>
       <c r="AC4" s="69"/>
@@ -1793,7 +1793,7 @@
       <c r="W9" s="72"/>
       <c r="X9" s="86"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="Z9" s="79"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="69"/>
       <c r="AC9" s="69"/>
@@ -1865,7 +1865,7 @@
       <c r="W11" s="72"/>
       <c r="X11" s="86"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="Z11" s="79"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="69"/>
       <c r="AC11" s="69"/>
@@ -1937,7 +1937,7 @@
       <c r="W13" s="85"/>
       <c r="X13" s="72"/>
       <c r="Y13" s="75"/>
-      <c r="Z13" s="1"/>
+      <c r="Z13" s="75"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="69"/>
       <c r="AC13" s="69"/>
@@ -2117,7 +2117,7 @@
       <c r="W18" s="85"/>
       <c r="X18" s="72"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="Z18" s="75"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="69"/>
       <c r="AC18" s="69"/>
@@ -2153,7 +2153,7 @@
       <c r="W19" s="85"/>
       <c r="X19" s="72"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="Z19" s="75"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="69"/>
       <c r="AC19" s="69"/>
@@ -2477,7 +2477,7 @@
       <c r="W28" s="72"/>
       <c r="X28" s="72"/>
       <c r="Y28" s="80"/>
-      <c r="Z28" s="1"/>
+      <c r="Z28" s="80"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="69"/>
       <c r="AC28" s="69"/>

--- a/Rapport resourcer/Tidsplan - Realiseret.xlsx
+++ b/Rapport resourcer/Tidsplan - Realiseret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\Rapport resourcer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA32163B-7E47-463E-BFD8-1C3A11D0C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D424C38-93F8-40BF-9452-EB8EA6E9115C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17370" yWindow="4335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <t>Metode- og teknologivalg</t>
   </si>
   <si>
-    <t>Presentation af data</t>
+    <t>Præsentation af data</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]d:\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +209,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="67">
     <fill>
@@ -1054,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1154,6 +1161,8 @@
     <xf numFmtId="0" fontId="0" fillId="64" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="65" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="66" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,7 +1452,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,8 +1623,8 @@
       <c r="X4" s="86"/>
       <c r="Y4" s="79"/>
       <c r="Z4" s="79"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="69"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="89"/>
       <c r="AC4" s="69"/>
       <c r="AD4" s="72"/>
       <c r="AE4" s="72"/>
@@ -1938,8 +1947,8 @@
       <c r="X13" s="72"/>
       <c r="Y13" s="75"/>
       <c r="Z13" s="75"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="69"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="90"/>
       <c r="AC13" s="69"/>
       <c r="AD13" s="72"/>
       <c r="AE13" s="72"/>
@@ -2154,7 +2163,7 @@
       <c r="X19" s="72"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="75"/>
-      <c r="AA19" s="1"/>
+      <c r="AA19" s="75"/>
       <c r="AB19" s="69"/>
       <c r="AC19" s="69"/>
       <c r="AD19" s="72"/>
@@ -2514,7 +2523,7 @@
       <c r="X29" s="88"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
+      <c r="AA29" s="83"/>
       <c r="AB29" s="70"/>
       <c r="AC29" s="70"/>
       <c r="AD29" s="73"/>

--- a/Rapport resourcer/Tidsplan - Realiseret.xlsx
+++ b/Rapport resourcer/Tidsplan - Realiseret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\Rapport resourcer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D424C38-93F8-40BF-9452-EB8EA6E9115C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9BC5A3-B341-4A97-992A-520AA4748A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17370" yWindow="4335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1627,7 @@
       <c r="AB4" s="89"/>
       <c r="AC4" s="69"/>
       <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
+      <c r="AE4" s="86"/>
       <c r="AF4" s="69"/>
       <c r="AG4" s="2"/>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="AB13" s="90"/>
       <c r="AC13" s="69"/>
       <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
+      <c r="AE13" s="85"/>
       <c r="AF13" s="69"/>
       <c r="AG13" s="2"/>
     </row>
@@ -2383,7 +2383,7 @@
       <c r="AB25" s="69"/>
       <c r="AC25" s="69"/>
       <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
+      <c r="AE25" s="81"/>
       <c r="AF25" s="69"/>
       <c r="AG25" s="2"/>
     </row>
@@ -2527,7 +2527,7 @@
       <c r="AB29" s="70"/>
       <c r="AC29" s="70"/>
       <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
+      <c r="AE29" s="88"/>
       <c r="AF29" s="70"/>
       <c r="AG29" s="4"/>
     </row>

--- a/Rapport resourcer/Tidsplan - Realiseret.xlsx
+++ b/Rapport resourcer/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\Rapport resourcer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9BC5A3-B341-4A97-992A-520AA4748A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A049F47-1A56-4322-BE80-948D90104CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="67">
+  <fills count="70">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +752,24 @@
       <patternFill patternType="darkUp">
         <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -1061,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1161,8 +1179,11 @@
     <xf numFmtId="0" fontId="0" fillId="64" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="65" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="66" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1452,7 +1473,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,12 +1645,12 @@
       <c r="Y4" s="79"/>
       <c r="Z4" s="79"/>
       <c r="AA4" s="79"/>
-      <c r="AB4" s="89"/>
+      <c r="AB4" s="90"/>
       <c r="AC4" s="69"/>
       <c r="AD4" s="72"/>
       <c r="AE4" s="86"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="2"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="93"/>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
@@ -1808,7 +1829,7 @@
       <c r="AC9" s="69"/>
       <c r="AD9" s="72"/>
       <c r="AE9" s="72"/>
-      <c r="AF9" s="69"/>
+      <c r="AF9" s="90"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
@@ -1843,8 +1864,8 @@
       <c r="AB10" s="69"/>
       <c r="AC10" s="69"/>
       <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="69"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="90"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
@@ -1880,7 +1901,7 @@
       <c r="AC11" s="69"/>
       <c r="AD11" s="72"/>
       <c r="AE11" s="72"/>
-      <c r="AF11" s="69"/>
+      <c r="AF11" s="90"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
@@ -1948,12 +1969,12 @@
       <c r="Y13" s="75"/>
       <c r="Z13" s="75"/>
       <c r="AA13" s="75"/>
-      <c r="AB13" s="90"/>
+      <c r="AB13" s="91"/>
       <c r="AC13" s="69"/>
       <c r="AD13" s="72"/>
       <c r="AE13" s="85"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="2"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="92"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="64"/>
@@ -2024,7 +2045,7 @@
       <c r="AC15" s="69"/>
       <c r="AD15" s="72"/>
       <c r="AE15" s="72"/>
-      <c r="AF15" s="69"/>
+      <c r="AF15" s="91"/>
       <c r="AG15" s="2"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
@@ -2060,7 +2081,7 @@
       <c r="AC16" s="69"/>
       <c r="AD16" s="72"/>
       <c r="AE16" s="72"/>
-      <c r="AF16" s="69"/>
+      <c r="AF16" s="91"/>
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.25">
@@ -2095,8 +2116,8 @@
       <c r="AB17" s="69"/>
       <c r="AC17" s="69"/>
       <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="69"/>
+      <c r="AE17" s="85"/>
+      <c r="AF17" s="91"/>
       <c r="AG17" s="2"/>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.25">
@@ -2132,7 +2153,7 @@
       <c r="AC18" s="69"/>
       <c r="AD18" s="72"/>
       <c r="AE18" s="72"/>
-      <c r="AF18" s="69"/>
+      <c r="AF18" s="91"/>
       <c r="AG18" s="2"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
@@ -2168,7 +2189,7 @@
       <c r="AC19" s="69"/>
       <c r="AD19" s="72"/>
       <c r="AE19" s="72"/>
-      <c r="AF19" s="69"/>
+      <c r="AF19" s="91"/>
       <c r="AG19" s="2"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.25">
@@ -2492,7 +2513,7 @@
       <c r="AC28" s="69"/>
       <c r="AD28" s="72"/>
       <c r="AE28" s="72"/>
-      <c r="AF28" s="69"/>
+      <c r="AF28" s="89"/>
       <c r="AG28" s="2"/>
     </row>
     <row r="29" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
